--- a/data/output/program_output/control.xlsx
+++ b/data/output/program_output/control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
   <si>
     <t>2022-W1</t>
   </si>
@@ -2185,51 +2185,6 @@
       <c r="BG6" t="s">
         <v>123</v>
       </c>
-      <c r="BH6" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI6">
-        <v>400</v>
-      </c>
-      <c r="BJ6">
-        <v>290</v>
-      </c>
-      <c r="BK6">
-        <v>81200</v>
-      </c>
-      <c r="BL6">
-        <v>11768.12</v>
-      </c>
-      <c r="BM6">
-        <v>18.93</v>
-      </c>
-      <c r="BN6">
-        <v>5299.83</v>
-      </c>
-      <c r="BO6">
-        <v>24838.16</v>
-      </c>
-      <c r="BP6">
-        <v>62.09540000000001</v>
-      </c>
-      <c r="BQ6">
-        <v>6.209540000000001</v>
-      </c>
-      <c r="BR6">
-        <v>941.4496</v>
-      </c>
-      <c r="BS6">
-        <v>2.353624</v>
-      </c>
-      <c r="BT6">
-        <v>0.2353624</v>
-      </c>
-      <c r="BU6">
-        <v>25779.6096</v>
-      </c>
-      <c r="BV6">
-        <v>-14011.4896</v>
-      </c>
     </row>
     <row r="7" spans="1:74">
       <c r="A7" t="s">
@@ -2372,51 +2327,6 @@
       </c>
       <c r="BG7" t="s">
         <v>124</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI7">
-        <v>500</v>
-      </c>
-      <c r="BJ7">
-        <v>290</v>
-      </c>
-      <c r="BK7">
-        <v>24940</v>
-      </c>
-      <c r="BL7">
-        <v>3614.49</v>
-      </c>
-      <c r="BM7">
-        <v>18.93</v>
-      </c>
-      <c r="BN7">
-        <v>1627.81</v>
-      </c>
-      <c r="BO7">
-        <v>31047.7</v>
-      </c>
-      <c r="BP7">
-        <v>62.0954</v>
-      </c>
-      <c r="BQ7">
-        <v>6.209540000000001</v>
-      </c>
-      <c r="BR7">
-        <v>289.1592</v>
-      </c>
-      <c r="BS7">
-        <v>0.5783184</v>
-      </c>
-      <c r="BT7">
-        <v>0.05783184</v>
-      </c>
-      <c r="BU7">
-        <v>31336.8592</v>
-      </c>
-      <c r="BV7">
-        <v>-27722.3692</v>
       </c>
     </row>
   </sheetData>
